--- a/Team-Data/2014-15/4-6-2014-15.xlsx
+++ b/Team-Data/2014-15/4-6-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -929,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>18</v>
@@ -941,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
         <v>41</v>
       </c>
       <c r="G4" t="n">
-        <v>0.468</v>
+        <v>0.461</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J4" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K4" t="n">
         <v>0.452</v>
@@ -1057,10 +1124,10 @@
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O4" t="n">
         <v>16.5</v>
@@ -1069,7 +1136,7 @@
         <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
         <v>10.2</v>
@@ -1081,10 +1148,10 @@
         <v>42.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1096,19 +1163,19 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1120,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1153,16 +1220,16 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU4" t="n">
         <v>22</v>
       </c>
-      <c r="AU4" t="n">
-        <v>21</v>
-      </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -1478,10 +1545,10 @@
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1490,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1508,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
@@ -1517,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -1657,16 +1724,16 @@
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1675,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>5</v>
@@ -1684,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
         <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,13 +1843,13 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M8" t="n">
         <v>25.6</v>
@@ -1794,19 +1861,19 @@
         <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.4</v>
@@ -1827,7 +1894,7 @@
         <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
         <v>104.6</v>
@@ -1836,7 +1903,7 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1875,13 +1942,13 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1890,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2272,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.442</v>
@@ -2516,16 +2583,16 @@
         <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
         <v>11.9</v>
@@ -2537,10 +2604,10 @@
         <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.6</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>3</v>
@@ -2576,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>20</v>
@@ -2600,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2612,13 +2679,13 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>2</v>
@@ -2627,13 +2694,13 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2785,7 +2852,7 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
@@ -2964,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="n">
-        <v>0.267</v>
+        <v>0.263</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>85.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -3146,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3158,10 +3225,10 @@
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3176,13 +3243,13 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>24</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3364,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3598,7 @@
         <v>22</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
@@ -3543,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -3668,10 +3735,10 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3722,7 +3789,7 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="n">
         <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>0.533</v>
+        <v>0.539</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,10 +4027,10 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7.2</v>
@@ -3972,25 +4039,25 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.761</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>22.1</v>
@@ -4002,25 +4069,25 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4038,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4056,19 +4123,19 @@
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4226,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -4488,40 +4555,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
         <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.316</v>
+        <v>0.312</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
         <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="P23" t="n">
         <v>19.1</v>
@@ -4530,43 +4597,43 @@
         <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,13 +4651,13 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4608,10 +4675,10 @@
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
         <v>25</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4978,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
         <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.649</v>
+        <v>0.658</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5058,19 +5125,19 @@
         <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M26" t="n">
         <v>27.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O26" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P26" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q26" t="n">
         <v>0.801</v>
@@ -5079,13 +5146,13 @@
         <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="T26" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V26" t="n">
         <v>13.6</v>
@@ -5100,31 +5167,31 @@
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>8</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.658</v>
+        <v>0.662</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,49 +5483,49 @@
         <v>38.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
         <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
@@ -5476,7 +5543,7 @@
         <v>6</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
         <v>12</v>
@@ -5506,22 +5573,22 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>5</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>14</v>
@@ -5533,7 +5600,7 @@
         <v>11</v>
       </c>
       <c r="AW28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5709,10 +5776,10 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5876,7 +5943,7 @@
         <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6134,7 @@
         <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6082,22 +6149,22 @@
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-6-2014-15</t>
+          <t>2015-04-06</t>
         </is>
       </c>
     </row>
